--- a/biology/Botanique/Peristrophe/Peristrophe.xlsx
+++ b/biology/Botanique/Peristrophe/Peristrophe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Peristrophe comprend une quinzaine d'espèces de plantes herbacées appartenant à la famille des Acanthacées.
 Ce sont des plantes aux fleurs généralement roses, à la corolle vrillée, originaires des régions tropicales et australes d'Afrique, de Madagascar, d'Inde et d'Asie du Sud-Est.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   6 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Peristrophe aculeata (C.B. Clarke) Brummitt , (1964)
 Peristrophe angolensis Balkwill , ()
 Peristrophe cernua Nees , (1841)
@@ -523,7 +537,7 @@
 Peristrophe hereroensis Balkwill , ()
 Peristrophe tianmuensis H.S. Lo , (1988)
 Peristrophe transvaalensis Balkwill , ()
-Selon NCBI  (6 Aug 2010)[2] :
+Selon NCBI  (6 Aug 2010) :
 Peristrophe cernua
 Peristrophe hyssopifolia</t>
         </is>
@@ -553,9 +567,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   6 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Peristrophe bicalyculata (Retz.) Nees  = Dicliptera paniculata (Forssk.) I.Darbysh. , (2007)
 Peristrophe caulopsila PRESL  = Peristrophe cernua Nees , (1841)
 Peristrophe paniculata (Forssk.) Brummitt   = Dicliptera paniculata (Forssk.) I.Darbysh. , (2007)
@@ -588,9 +604,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[1]   6 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   6 octobre 2012
 Peristrophe acuminata Nees
 Peristrophe albiflora Hassk.
 Peristrophe angolensis (S.Moore) K.Balkwill [Unplaced]
